--- a/src/main/resources/excel/yueyu.xlsx
+++ b/src/main/resources/excel/yueyu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -50,6 +50,19 @@
   <si>
     <t>10.104.206.239</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaoye</t>
+  </si>
+  <si>
+    <t>baseServerId</t>
+  </si>
+  <si>
+    <t>isRedis</t>
+  </si>
+  <si>
+    <t>redisLocalPortAdd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -460,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -471,9 +484,11 @@
     <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,8 +504,20 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -503,8 +530,20 @@
       <c r="D2">
         <v>36501</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -516,6 +555,18 @@
       </c>
       <c r="D3">
         <v>36502</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
